--- a/sekkeisyo/詳細設計演習/詳細設計書_プログラミング実習.xlsx
+++ b/sekkeisyo/詳細設計演習/詳細設計書_プログラミング実習.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\workspace\test\設計書\詳細設計演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\D.I.Works_text\17_追加課題6 設計書\詳細設計演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18546C-E420-4EC5-B822-A9CF572D4AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BE3663-963C-4E72-98F7-57FAD248B1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="844" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">IO関連図!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">イベント一覧!$A$1:$AG$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">イベント一覧!$A$1:$AG$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面レイアウト!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">更新仕様書!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">項目説明・ログイン・TOP!$A$1:$AG$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">項目説明・一覧!$A$1:$AG$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">項目説明・一覧!$A$1:$AG$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">項目説明・更新!$A$1:$AG$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">項目説明・削除!$A$1:$AG$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">項目説明・削除!$A$1:$AG$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">項目説明・登録!$A$1:$AG$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">補足説明!$A$1:$AG$43</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="249">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1947,6 +1947,20 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>アカウント一覧ボタン</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録ボタン</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>id/password</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2096,6 +2110,16 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>/DBに登録されている内容</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>ひらがな、漢字／登録済の内容</t>
     <rPh sb="5" eb="7">
       <t>カンジ</t>
@@ -2274,35 +2298,32 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログイン</t>
+    <t>文字数各</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の情報</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
+    <t>戻ってきたとき</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>idを受け渡す</t>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ワタ</t>
+    <t>確認画面から戻ったとき</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2314,7 +2335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2426,13 +2447,6 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2833,17 +2847,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2869,12 +2889,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3666,12 +3680,12 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -3690,8 +3704,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6305550" y="2654300"/>
-          <a:ext cx="2965450" cy="1200150"/>
+          <a:off x="6305550" y="2984500"/>
+          <a:ext cx="2012950" cy="755650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6701,10 +6715,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:FU56"/>
+  <dimension ref="A1:FU58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -7096,7 +7110,9 @@
       <c r="AA6" s="85"/>
       <c r="AB6" s="86"/>
       <c r="AC6" s="84"/>
-      <c r="AD6" s="85"/>
+      <c r="AD6" s="85" t="s">
+        <v>247</v>
+      </c>
       <c r="AE6" s="85"/>
       <c r="AF6" s="85"/>
       <c r="AG6" s="86"/>
@@ -7478,16 +7494,14 @@
       <c r="AG16" s="86"/>
     </row>
     <row r="17" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A17" s="84" t="s">
-        <v>156</v>
-      </c>
+      <c r="A17" s="84"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
       <c r="D17" s="85"/>
       <c r="E17" s="85"/>
       <c r="F17" s="89"/>
-      <c r="G17" s="90" t="s">
-        <v>181</v>
+      <c r="G17" s="85" t="s">
+        <v>248</v>
       </c>
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
@@ -7517,13 +7531,17 @@
       <c r="AG17" s="86"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="84" t="s">
+        <v>156</v>
+      </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
+      <c r="G18" s="90" t="s">
+        <v>181</v>
+      </c>
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18" s="85"/>
@@ -7545,61 +7563,55 @@
       <c r="Z18" s="90"/>
       <c r="AA18" s="85"/>
       <c r="AB18" s="89"/>
-      <c r="AC18" s="85"/>
+      <c r="AC18" s="90"/>
       <c r="AD18" s="85"/>
       <c r="AE18" s="85"/>
       <c r="AF18" s="85"/>
       <c r="AG18" s="86"/>
     </row>
-    <row r="19" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="96"/>
+    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="86"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="84" t="s">
-        <v>178</v>
-      </c>
+      <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
       <c r="F20" s="89"/>
-      <c r="G20" s="90" t="s">
-        <v>183</v>
-      </c>
+      <c r="G20" s="85"/>
       <c r="H20" s="85"/>
       <c r="I20" s="85"/>
       <c r="J20" s="85"/>
@@ -7621,59 +7633,61 @@
       <c r="Z20" s="90"/>
       <c r="AA20" s="85"/>
       <c r="AB20" s="89"/>
-      <c r="AC20" s="90"/>
+      <c r="AC20" s="85"/>
       <c r="AD20" s="85"/>
       <c r="AE20" s="85"/>
       <c r="AF20" s="85"/>
       <c r="AG20" s="86"/>
     </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="86"/>
+    <row r="21" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="96"/>
     </row>
     <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="84"/>
+      <c r="A22" s="84" t="s">
+        <v>178</v>
+      </c>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="85"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90" t="s">
+        <v>183</v>
+      </c>
       <c r="H22" s="85"/>
       <c r="I22" s="85"/>
       <c r="J22" s="85"/>
@@ -7687,69 +7701,67 @@
       <c r="R22" s="85"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
+      <c r="U22" s="90"/>
       <c r="V22" s="85"/>
       <c r="W22" s="85"/>
       <c r="X22" s="85"/>
       <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
+      <c r="Z22" s="90"/>
       <c r="AA22" s="85"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="85"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="90"/>
       <c r="AD22" s="85"/>
       <c r="AE22" s="85"/>
       <c r="AF22" s="85"/>
       <c r="AG22" s="86"/>
     </row>
-    <row r="23" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A23" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="96"/>
+    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A23" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="86"/>
     </row>
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="84" t="s">
-        <v>188</v>
-      </c>
+      <c r="A24" s="84"/>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
       <c r="E24" s="85"/>
       <c r="F24" s="86"/>
-      <c r="G24" s="85" t="s">
-        <v>185</v>
-      </c>
+      <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
@@ -7777,51 +7789,55 @@
       <c r="AF24" s="85"/>
       <c r="AG24" s="86"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="86"/>
+    <row r="25" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A25" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="96"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="93" t="s">
-        <v>166</v>
+      <c r="A26" s="84" t="s">
+        <v>188</v>
       </c>
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85"/>
       <c r="F26" s="86"/>
-      <c r="G26" s="85"/>
+      <c r="G26" s="85" t="s">
+        <v>185</v>
+      </c>
       <c r="H26" s="85"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -7850,17 +7866,13 @@
       <c r="AG26" s="86"/>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="84" t="s">
-        <v>162</v>
-      </c>
+      <c r="A27" s="84"/>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85" t="s">
-        <v>179</v>
-      </c>
+      <c r="F27" s="86"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="85"/>
       <c r="J27" s="85"/>
@@ -7881,7 +7893,7 @@
       <c r="Y27" s="85"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="85"/>
-      <c r="AB27" s="89"/>
+      <c r="AB27" s="86"/>
       <c r="AC27" s="85"/>
       <c r="AD27" s="85"/>
       <c r="AE27" s="85"/>
@@ -7889,15 +7901,15 @@
       <c r="AG27" s="86"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="84"/>
+      <c r="A28" s="93" t="s">
+        <v>166</v>
+      </c>
       <c r="B28" s="85"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
       <c r="E28" s="85"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85" t="s">
-        <v>172</v>
-      </c>
+      <c r="F28" s="86"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
       <c r="J28" s="85"/>
@@ -7918,7 +7930,7 @@
       <c r="Y28" s="85"/>
       <c r="Z28" s="85"/>
       <c r="AA28" s="85"/>
-      <c r="AB28" s="89"/>
+      <c r="AB28" s="86"/>
       <c r="AC28" s="85"/>
       <c r="AD28" s="85"/>
       <c r="AE28" s="85"/>
@@ -7927,15 +7939,15 @@
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
       <c r="A29" s="84" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B29" s="85"/>
       <c r="C29" s="85"/>
       <c r="D29" s="85"/>
       <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="85" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="85"/>
@@ -7957,7 +7969,7 @@
       <c r="Y29" s="85"/>
       <c r="Z29" s="85"/>
       <c r="AA29" s="85"/>
-      <c r="AB29" s="86"/>
+      <c r="AB29" s="89"/>
       <c r="AC29" s="85"/>
       <c r="AD29" s="85"/>
       <c r="AE29" s="85"/>
@@ -7965,16 +7977,14 @@
       <c r="AG29" s="86"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="84" t="s">
-        <v>168</v>
-      </c>
+      <c r="A30" s="84"/>
       <c r="B30" s="85"/>
       <c r="C30" s="85"/>
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="89"/>
       <c r="G30" s="85" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H30" s="85"/>
       <c r="I30" s="85"/>
@@ -7996,7 +8006,7 @@
       <c r="Y30" s="85"/>
       <c r="Z30" s="85"/>
       <c r="AA30" s="85"/>
-      <c r="AB30" s="86"/>
+      <c r="AB30" s="89"/>
       <c r="AC30" s="85"/>
       <c r="AD30" s="85"/>
       <c r="AE30" s="85"/>
@@ -8005,15 +8015,15 @@
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
       <c r="A31" s="84" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B31" s="85"/>
       <c r="C31" s="85"/>
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90" t="s">
-        <v>176</v>
+      <c r="F31" s="86"/>
+      <c r="G31" s="85" t="s">
+        <v>173</v>
       </c>
       <c r="H31" s="85"/>
       <c r="I31" s="85"/>
@@ -8028,28 +8038,32 @@
       <c r="R31" s="85"/>
       <c r="S31" s="85"/>
       <c r="T31" s="85"/>
-      <c r="U31" s="90"/>
+      <c r="U31" s="85"/>
       <c r="V31" s="85"/>
       <c r="W31" s="85"/>
       <c r="X31" s="85"/>
       <c r="Y31" s="85"/>
-      <c r="Z31" s="90"/>
+      <c r="Z31" s="85"/>
       <c r="AA31" s="85"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="90"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="85"/>
       <c r="AD31" s="85"/>
       <c r="AE31" s="85"/>
       <c r="AF31" s="85"/>
       <c r="AG31" s="86"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A32" s="84"/>
+      <c r="A32" s="84" t="s">
+        <v>168</v>
+      </c>
       <c r="B32" s="85"/>
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
-      <c r="G32" s="85"/>
+      <c r="G32" s="85" t="s">
+        <v>175</v>
+      </c>
       <c r="H32" s="85"/>
       <c r="I32" s="85"/>
       <c r="J32" s="85"/>
@@ -8077,55 +8091,53 @@
       <c r="AF32" s="85"/>
       <c r="AG32" s="86"/>
     </row>
-    <row r="33" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A33" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="96"/>
+    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A33" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="85"/>
+      <c r="AE33" s="85"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="86"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="84" t="s">
-        <v>162</v>
-      </c>
+      <c r="A34" s="84"/>
       <c r="B34" s="85"/>
       <c r="C34" s="85"/>
       <c r="D34" s="85"/>
       <c r="E34" s="85"/>
       <c r="F34" s="86"/>
-      <c r="G34" s="85" t="s">
-        <v>179</v>
-      </c>
+      <c r="G34" s="85"/>
       <c r="H34" s="85"/>
       <c r="I34" s="85"/>
       <c r="J34" s="85"/>
@@ -8153,46 +8165,46 @@
       <c r="AF34" s="85"/>
       <c r="AG34" s="86"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="86"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="85"/>
-      <c r="AG35" s="86"/>
+    <row r="35" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A35" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="96"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
       <c r="A36" s="84" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
@@ -8200,7 +8212,7 @@
       <c r="E36" s="85"/>
       <c r="F36" s="86"/>
       <c r="G36" s="85" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H36" s="85"/>
       <c r="I36" s="85"/>
@@ -8235,8 +8247,10 @@
       <c r="C37" s="85"/>
       <c r="D37" s="85"/>
       <c r="E37" s="85"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="90"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="85" t="s">
+        <v>198</v>
+      </c>
       <c r="H37" s="85"/>
       <c r="I37" s="85"/>
       <c r="J37" s="85"/>
@@ -8250,30 +8264,32 @@
       <c r="R37" s="85"/>
       <c r="S37" s="85"/>
       <c r="T37" s="85"/>
-      <c r="U37" s="90"/>
+      <c r="U37" s="85"/>
       <c r="V37" s="85"/>
       <c r="W37" s="85"/>
       <c r="X37" s="85"/>
       <c r="Y37" s="85"/>
-      <c r="Z37" s="90"/>
+      <c r="Z37" s="85"/>
       <c r="AA37" s="85"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="90"/>
+      <c r="AB37" s="86"/>
+      <c r="AC37" s="85"/>
       <c r="AD37" s="85"/>
       <c r="AE37" s="85"/>
       <c r="AF37" s="85"/>
       <c r="AG37" s="86"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A38" s="93" t="s">
-        <v>191</v>
+      <c r="A38" s="84" t="s">
+        <v>156</v>
       </c>
       <c r="B38" s="85"/>
       <c r="C38" s="85"/>
       <c r="D38" s="85"/>
       <c r="E38" s="85"/>
       <c r="F38" s="86"/>
-      <c r="G38" s="85"/>
+      <c r="G38" s="85" t="s">
+        <v>190</v>
+      </c>
       <c r="H38" s="85"/>
       <c r="I38" s="85"/>
       <c r="J38" s="85"/>
@@ -8302,17 +8318,13 @@
       <c r="AG38" s="86"/>
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A39" s="84" t="s">
-        <v>157</v>
-      </c>
+      <c r="A39" s="84"/>
       <c r="B39" s="85"/>
       <c r="C39" s="85"/>
       <c r="D39" s="85"/>
       <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="85" t="s">
-        <v>175</v>
-      </c>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="85"/>
       <c r="I39" s="85"/>
       <c r="J39" s="85"/>
@@ -8326,32 +8338,30 @@
       <c r="R39" s="85"/>
       <c r="S39" s="85"/>
       <c r="T39" s="85"/>
-      <c r="U39" s="85"/>
+      <c r="U39" s="90"/>
       <c r="V39" s="85"/>
       <c r="W39" s="85"/>
       <c r="X39" s="85"/>
       <c r="Y39" s="85"/>
-      <c r="Z39" s="85"/>
+      <c r="Z39" s="90"/>
       <c r="AA39" s="85"/>
-      <c r="AB39" s="86"/>
-      <c r="AC39" s="85"/>
+      <c r="AB39" s="89"/>
+      <c r="AC39" s="90"/>
       <c r="AD39" s="85"/>
       <c r="AE39" s="85"/>
       <c r="AF39" s="85"/>
       <c r="AG39" s="86"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="84" t="s">
-        <v>168</v>
+      <c r="A40" s="93" t="s">
+        <v>191</v>
       </c>
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
       <c r="D40" s="85"/>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
-      <c r="G40" s="85" t="s">
-        <v>192</v>
-      </c>
+      <c r="G40" s="85"/>
       <c r="H40" s="85"/>
       <c r="I40" s="85"/>
       <c r="J40" s="85"/>
@@ -8380,13 +8390,17 @@
       <c r="AG40" s="86"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="84"/>
+      <c r="A41" s="84" t="s">
+        <v>157</v>
+      </c>
       <c r="B41" s="85"/>
       <c r="C41" s="85"/>
       <c r="D41" s="85"/>
       <c r="E41" s="85"/>
       <c r="F41" s="86"/>
-      <c r="G41" s="85"/>
+      <c r="G41" s="85" t="s">
+        <v>175</v>
+      </c>
       <c r="H41" s="85"/>
       <c r="I41" s="85"/>
       <c r="J41" s="85"/>
@@ -8414,57 +8428,53 @@
       <c r="AF41" s="85"/>
       <c r="AG41" s="86"/>
     </row>
-    <row r="42" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="96"/>
+    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A42" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
       <c r="G42" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
-      <c r="AB42" s="96"/>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="94"/>
-      <c r="AE42" s="94"/>
-      <c r="AF42" s="94"/>
-      <c r="AG42" s="96"/>
+        <v>192</v>
+      </c>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="86"/>
+      <c r="AC42" s="85"/>
+      <c r="AD42" s="85"/>
+      <c r="AE42" s="85"/>
+      <c r="AF42" s="85"/>
+      <c r="AG42" s="86"/>
     </row>
     <row r="43" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A43" s="84" t="s">
-        <v>188</v>
-      </c>
+      <c r="A43" s="84"/>
       <c r="B43" s="85"/>
       <c r="C43" s="85"/>
       <c r="D43" s="85"/>
       <c r="E43" s="85"/>
       <c r="F43" s="86"/>
-      <c r="G43" s="85" t="s">
-        <v>185</v>
-      </c>
+      <c r="G43" s="85"/>
       <c r="H43" s="85"/>
       <c r="I43" s="85"/>
       <c r="J43" s="85"/>
@@ -8492,90 +8502,92 @@
       <c r="AF43" s="85"/>
       <c r="AG43" s="86"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="86"/>
-      <c r="AC44" s="85"/>
-      <c r="AD44" s="85"/>
-      <c r="AE44" s="85"/>
-      <c r="AF44" s="85"/>
-      <c r="AG44" s="86"/>
-    </row>
-    <row r="45" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="94"/>
-      <c r="AA45" s="94"/>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="94"/>
-      <c r="AD45" s="94"/>
-      <c r="AE45" s="94"/>
-      <c r="AF45" s="94"/>
-      <c r="AG45" s="96"/>
+    <row r="44" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A44" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="96"/>
+      <c r="AC44" s="94"/>
+      <c r="AD44" s="94"/>
+      <c r="AE44" s="94"/>
+      <c r="AF44" s="94"/>
+      <c r="AG44" s="96"/>
+    </row>
+    <row r="45" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A45" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="86"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="85"/>
+      <c r="AE45" s="85"/>
+      <c r="AF45" s="85"/>
+      <c r="AG45" s="86"/>
     </row>
     <row r="46" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A46" s="84" t="s">
-        <v>162</v>
-      </c>
+      <c r="A46" s="84"/>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
       <c r="D46" s="85"/>
       <c r="E46" s="85"/>
       <c r="F46" s="86"/>
-      <c r="G46" s="85" t="s">
-        <v>179</v>
-      </c>
+      <c r="G46" s="85"/>
       <c r="H46" s="85"/>
       <c r="I46" s="85"/>
       <c r="J46" s="85"/>
@@ -8603,46 +8615,46 @@
       <c r="AF46" s="85"/>
       <c r="AG46" s="86"/>
     </row>
-    <row r="47" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A47" s="84"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="85"/>
-      <c r="S47" s="85"/>
-      <c r="T47" s="85"/>
-      <c r="U47" s="85"/>
-      <c r="V47" s="85"/>
-      <c r="W47" s="85"/>
-      <c r="X47" s="85"/>
-      <c r="Y47" s="85"/>
-      <c r="Z47" s="85"/>
-      <c r="AA47" s="85"/>
-      <c r="AB47" s="86"/>
-      <c r="AC47" s="85"/>
-      <c r="AD47" s="85"/>
-      <c r="AE47" s="85"/>
-      <c r="AF47" s="85"/>
-      <c r="AG47" s="86"/>
+    <row r="47" spans="1:33" s="97" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A47" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="94"/>
+      <c r="U47" s="94"/>
+      <c r="V47" s="94"/>
+      <c r="W47" s="94"/>
+      <c r="X47" s="94"/>
+      <c r="Y47" s="94"/>
+      <c r="Z47" s="94"/>
+      <c r="AA47" s="94"/>
+      <c r="AB47" s="96"/>
+      <c r="AC47" s="94"/>
+      <c r="AD47" s="94"/>
+      <c r="AE47" s="94"/>
+      <c r="AF47" s="94"/>
+      <c r="AG47" s="96"/>
     </row>
     <row r="48" spans="1:33" ht="12.75" customHeight="1">
       <c r="A48" s="84" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B48" s="85"/>
       <c r="C48" s="85"/>
@@ -8650,7 +8662,7 @@
       <c r="E48" s="85"/>
       <c r="F48" s="86"/>
       <c r="G48" s="85" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H48" s="85"/>
       <c r="I48" s="85"/>
@@ -8686,7 +8698,9 @@
       <c r="D49" s="85"/>
       <c r="E49" s="85"/>
       <c r="F49" s="86"/>
-      <c r="G49" s="85"/>
+      <c r="G49" s="85" t="s">
+        <v>199</v>
+      </c>
       <c r="H49" s="85"/>
       <c r="I49" s="85"/>
       <c r="J49" s="85"/>
@@ -8715,15 +8729,17 @@
       <c r="AG49" s="86"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A50" s="93" t="s">
-        <v>196</v>
+      <c r="A50" s="84" t="s">
+        <v>195</v>
       </c>
       <c r="B50" s="85"/>
       <c r="C50" s="85"/>
       <c r="D50" s="85"/>
       <c r="E50" s="85"/>
       <c r="F50" s="86"/>
-      <c r="G50" s="94"/>
+      <c r="G50" s="85" t="s">
+        <v>200</v>
+      </c>
       <c r="H50" s="85"/>
       <c r="I50" s="85"/>
       <c r="J50" s="85"/>
@@ -8752,17 +8768,13 @@
       <c r="AG50" s="86"/>
     </row>
     <row r="51" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A51" s="84" t="s">
-        <v>174</v>
-      </c>
+      <c r="A51" s="84"/>
       <c r="B51" s="85"/>
       <c r="C51" s="85"/>
       <c r="D51" s="85"/>
       <c r="E51" s="85"/>
       <c r="F51" s="86"/>
-      <c r="G51" s="85" t="s">
-        <v>201</v>
-      </c>
+      <c r="G51" s="85"/>
       <c r="H51" s="85"/>
       <c r="I51" s="85"/>
       <c r="J51" s="85"/>
@@ -8791,17 +8803,15 @@
       <c r="AG51" s="86"/>
     </row>
     <row r="52" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A52" s="84" t="s">
-        <v>157</v>
+      <c r="A52" s="93" t="s">
+        <v>196</v>
       </c>
       <c r="B52" s="85"/>
       <c r="C52" s="85"/>
       <c r="D52" s="85"/>
       <c r="E52" s="85"/>
       <c r="F52" s="86"/>
-      <c r="G52" s="85" t="s">
-        <v>202</v>
-      </c>
+      <c r="G52" s="94"/>
       <c r="H52" s="85"/>
       <c r="I52" s="85"/>
       <c r="J52" s="85"/>
@@ -8830,13 +8840,17 @@
       <c r="AG52" s="86"/>
     </row>
     <row r="53" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A53" s="84"/>
+      <c r="A53" s="84" t="s">
+        <v>174</v>
+      </c>
       <c r="B53" s="85"/>
       <c r="C53" s="85"/>
       <c r="D53" s="85"/>
       <c r="E53" s="85"/>
       <c r="F53" s="86"/>
-      <c r="G53" s="85"/>
+      <c r="G53" s="85" t="s">
+        <v>201</v>
+      </c>
       <c r="H53" s="85"/>
       <c r="I53" s="85"/>
       <c r="J53" s="85"/>
@@ -8865,8 +8879,8 @@
       <c r="AG53" s="86"/>
     </row>
     <row r="54" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A54" s="93" t="s">
-        <v>197</v>
+      <c r="A54" s="84" t="s">
+        <v>157</v>
       </c>
       <c r="B54" s="85"/>
       <c r="C54" s="85"/>
@@ -8874,7 +8888,7 @@
       <c r="E54" s="85"/>
       <c r="F54" s="86"/>
       <c r="G54" s="85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H54" s="85"/>
       <c r="I54" s="85"/>
@@ -8904,17 +8918,13 @@
       <c r="AG54" s="86"/>
     </row>
     <row r="55" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A55" s="84" t="s">
-        <v>203</v>
-      </c>
+      <c r="A55" s="84"/>
       <c r="B55" s="85"/>
       <c r="C55" s="85"/>
       <c r="D55" s="85"/>
       <c r="E55" s="85"/>
       <c r="F55" s="86"/>
-      <c r="G55" s="85" t="s">
-        <v>185</v>
-      </c>
+      <c r="G55" s="85"/>
       <c r="H55" s="85"/>
       <c r="I55" s="85"/>
       <c r="J55" s="85"/>
@@ -8943,13 +8953,17 @@
       <c r="AG55" s="86"/>
     </row>
     <row r="56" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A56" s="84"/>
+      <c r="A56" s="93" t="s">
+        <v>197</v>
+      </c>
       <c r="B56" s="85"/>
       <c r="C56" s="85"/>
       <c r="D56" s="85"/>
       <c r="E56" s="85"/>
       <c r="F56" s="86"/>
-      <c r="G56" s="85"/>
+      <c r="G56" s="85" t="s">
+        <v>204</v>
+      </c>
       <c r="H56" s="85"/>
       <c r="I56" s="85"/>
       <c r="J56" s="85"/>
@@ -8976,6 +8990,80 @@
       <c r="AE56" s="85"/>
       <c r="AF56" s="85"/>
       <c r="AG56" s="86"/>
+    </row>
+    <row r="57" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A57" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
+      <c r="R57" s="85"/>
+      <c r="S57" s="85"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="85"/>
+      <c r="AA57" s="85"/>
+      <c r="AB57" s="86"/>
+      <c r="AC57" s="85"/>
+      <c r="AD57" s="85"/>
+      <c r="AE57" s="85"/>
+      <c r="AF57" s="85"/>
+      <c r="AG57" s="86"/>
+    </row>
+    <row r="58" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A58" s="84"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="85"/>
+      <c r="S58" s="85"/>
+      <c r="T58" s="85"/>
+      <c r="U58" s="85"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
+      <c r="X58" s="85"/>
+      <c r="Y58" s="85"/>
+      <c r="Z58" s="85"/>
+      <c r="AA58" s="85"/>
+      <c r="AB58" s="86"/>
+      <c r="AC58" s="85"/>
+      <c r="AD58" s="85"/>
+      <c r="AE58" s="85"/>
+      <c r="AF58" s="85"/>
+      <c r="AG58" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -15866,98 +15954,98 @@
     </row>
     <row r="12" spans="1:33" ht="12.75" customHeight="1">
       <c r="A12" s="44"/>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="130" t="s">
+      <c r="C12" s="131"/>
+      <c r="D12" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="130" t="s">
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="130" t="s">
+      <c r="I12" s="132"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="143"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="130" t="s">
+      <c r="L12" s="132"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="131"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="130" t="s">
+      <c r="O12" s="129"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="132"/>
-      <c r="S12" s="130" t="s">
+      <c r="R12" s="130"/>
+      <c r="S12" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="131"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="130" t="s">
+      <c r="T12" s="129"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="131"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="130" t="s">
+      <c r="W12" s="129"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="132"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="129"/>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="130"/>
       <c r="AF12" s="68"/>
       <c r="AG12" s="46"/>
     </row>
     <row r="13" spans="1:33" ht="12.75" customHeight="1">
       <c r="A13" s="44"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="70"/>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="139" t="s">
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="141"/>
-      <c r="M13" s="140"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="142"/>
       <c r="N13" s="69" t="s">
         <v>29</v>
       </c>
       <c r="O13" s="60"/>
       <c r="P13" s="70"/>
-      <c r="Q13" s="139" t="s">
+      <c r="Q13" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="140"/>
-      <c r="S13" s="136" t="s">
+      <c r="R13" s="142"/>
+      <c r="S13" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="T13" s="137"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="133" t="s">
+      <c r="T13" s="139"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="134"/>
-      <c r="X13" s="135"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="137"/>
       <c r="Y13" s="71" t="s">
         <v>34</v>
       </c>
@@ -16991,6 +17079,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -17005,16 +17103,6 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17032,7 +17120,7 @@
   <dimension ref="A1:FU45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17135,7 +17223,7 @@
       <c r="E3" s="122"/>
       <c r="F3" s="123"/>
       <c r="G3" s="121" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="122"/>
@@ -17369,14 +17457,14 @@
     </row>
     <row r="5" spans="1:177" ht="12">
       <c r="A5" s="84" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
       <c r="D5" s="85"/>
       <c r="E5" s="86"/>
       <c r="F5" s="87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="87">
         <v>255</v>
@@ -17399,7 +17487,7 @@
       <c r="S5" s="90"/>
       <c r="T5" s="89"/>
       <c r="U5" s="90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="V5" s="90"/>
       <c r="W5" s="90"/>
@@ -17423,7 +17511,7 @@
       <c r="D6" s="85"/>
       <c r="E6" s="86"/>
       <c r="F6" s="87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="87">
         <v>7</v>
@@ -17446,7 +17534,7 @@
       <c r="S6" s="90"/>
       <c r="T6" s="89"/>
       <c r="U6" s="85" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
@@ -17470,7 +17558,7 @@
       <c r="D7" s="85"/>
       <c r="E7" s="86"/>
       <c r="F7" s="87" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G7" s="87"/>
       <c r="H7" s="87"/>
@@ -17484,7 +17572,7 @@
       <c r="N7" s="85"/>
       <c r="O7" s="86"/>
       <c r="P7" s="84" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="85"/>
       <c r="R7" s="85"/>
@@ -17515,7 +17603,7 @@
       <c r="D8" s="85"/>
       <c r="E8" s="86"/>
       <c r="F8" s="87" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G8" s="87"/>
       <c r="H8" s="87"/>
@@ -17529,7 +17617,7 @@
       <c r="N8" s="85"/>
       <c r="O8" s="86"/>
       <c r="P8" s="84" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
@@ -17587,7 +17675,9 @@
       <c r="AG9" s="86"/>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="84"/>
+      <c r="A10" s="84" t="s">
+        <v>213</v>
+      </c>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
       <c r="D10" s="85"/>
@@ -17619,7 +17709,7 @@
       <c r="Z10" s="85"/>
       <c r="AA10" s="86"/>
       <c r="AB10" s="85" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AC10" s="85"/>
       <c r="AD10" s="85"/>
@@ -17628,7 +17718,9 @@
       <c r="AG10" s="86"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="84"/>
+      <c r="A11" s="84" t="s">
+        <v>214</v>
+      </c>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
@@ -18883,10 +18975,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE82C6F-74D2-4301-A9E0-DBB9CFF2C6D5}">
-  <dimension ref="A1:FU45"/>
+  <dimension ref="A1:FU47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -19411,7 +19503,7 @@
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="84" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
@@ -19420,7 +19512,9 @@
       <c r="F9" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="87">
+        <v>255</v>
+      </c>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
       <c r="J9" s="87"/>
@@ -19431,23 +19525,23 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
       <c r="O9" s="89"/>
-      <c r="P9" s="84"/>
+      <c r="P9" s="84" t="s">
+        <v>135</v>
+      </c>
       <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
       <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
+      <c r="Y9" s="90"/>
       <c r="Z9" s="85"/>
       <c r="AA9" s="86"/>
-      <c r="AB9" s="85" t="s">
-        <v>241</v>
-      </c>
+      <c r="AB9" s="85"/>
       <c r="AC9" s="85"/>
       <c r="AD9" s="85"/>
       <c r="AE9" s="85"/>
@@ -19455,55 +19549,65 @@
       <c r="AG9" s="86"/>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="84"/>
+      <c r="A10" s="84" t="s">
+        <v>124</v>
+      </c>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
       <c r="D10" s="85"/>
       <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="F10" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="87">
+        <v>10</v>
+      </c>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
       <c r="J10" s="87"/>
-      <c r="K10" s="84"/>
+      <c r="K10" s="84" t="s">
+        <v>129</v>
+      </c>
       <c r="L10" s="85"/>
       <c r="M10" s="85"/>
       <c r="N10" s="85"/>
       <c r="O10" s="89"/>
-      <c r="P10" s="84"/>
+      <c r="P10" s="84" t="s">
+        <v>137</v>
+      </c>
       <c r="Q10" s="85"/>
       <c r="R10" s="90"/>
       <c r="S10" s="90"/>
       <c r="T10" s="89"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
+      <c r="U10" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
       <c r="X10" s="85"/>
-      <c r="Y10" s="90"/>
+      <c r="Y10" s="85"/>
       <c r="Z10" s="85"/>
       <c r="AA10" s="86"/>
-      <c r="AB10" s="90" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
       <c r="AE10" s="85"/>
       <c r="AF10" s="85"/>
       <c r="AG10" s="86"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
       <c r="A11" s="84" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="86"/>
       <c r="F11" s="87" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" s="87">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -19514,16 +19618,14 @@
       <c r="L11" s="85"/>
       <c r="M11" s="85"/>
       <c r="N11" s="85"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="84" t="s">
-        <v>130</v>
-      </c>
+      <c r="O11" s="89"/>
+      <c r="P11" s="84"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="85"/>
       <c r="S11" s="85"/>
       <c r="T11" s="86"/>
-      <c r="U11" s="92" t="s">
-        <v>244</v>
+      <c r="U11" s="85" t="s">
+        <v>226</v>
       </c>
       <c r="V11" s="85"/>
       <c r="W11" s="85"/>
@@ -19531,7 +19633,9 @@
       <c r="Y11" s="85"/>
       <c r="Z11" s="85"/>
       <c r="AA11" s="86"/>
-      <c r="AB11" s="85"/>
+      <c r="AB11" s="85" t="s">
+        <v>244</v>
+      </c>
       <c r="AC11" s="85"/>
       <c r="AD11" s="85"/>
       <c r="AE11" s="85"/>
@@ -19539,53 +19643,45 @@
       <c r="AG11" s="86"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="84" t="s">
-        <v>114</v>
-      </c>
+      <c r="A12" s="84"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="86"/>
-      <c r="F12" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="87">
-        <v>100</v>
-      </c>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
       <c r="J12" s="87"/>
-      <c r="K12" s="84" t="s">
-        <v>129</v>
-      </c>
+      <c r="K12" s="84"/>
       <c r="L12" s="85"/>
       <c r="M12" s="85"/>
       <c r="N12" s="85"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="84" t="s">
-        <v>131</v>
-      </c>
+      <c r="O12" s="89"/>
+      <c r="P12" s="84"/>
       <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
       <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
+      <c r="Y12" s="90"/>
       <c r="Z12" s="85"/>
       <c r="AA12" s="86"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
+      <c r="AB12" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
       <c r="AE12" s="85"/>
       <c r="AF12" s="85"/>
       <c r="AG12" s="86"/>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
@@ -19606,15 +19702,15 @@
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
-      <c r="O13" s="89"/>
+      <c r="O13" s="86"/>
       <c r="P13" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="85"/>
       <c r="R13" s="85"/>
       <c r="S13" s="85"/>
       <c r="T13" s="86"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="85"/>
       <c r="W13" s="85"/>
       <c r="X13" s="85"/>
@@ -19630,7 +19726,7 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
@@ -19651,19 +19747,19 @@
       <c r="L14" s="85"/>
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
-      <c r="O14" s="89"/>
+      <c r="O14" s="86"/>
       <c r="P14" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="85"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
       <c r="X14" s="85"/>
-      <c r="Y14" s="90"/>
+      <c r="Y14" s="85"/>
       <c r="Z14" s="85"/>
       <c r="AA14" s="86"/>
       <c r="AB14" s="85"/>
@@ -19675,7 +19771,7 @@
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -19698,17 +19794,17 @@
       <c r="N15" s="85"/>
       <c r="O15" s="89"/>
       <c r="P15" s="84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="85"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
       <c r="X15" s="85"/>
-      <c r="Y15" s="90"/>
+      <c r="Y15" s="85"/>
       <c r="Z15" s="85"/>
       <c r="AA15" s="86"/>
       <c r="AB15" s="85"/>
@@ -19720,7 +19816,7 @@
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
       <c r="A16" s="84" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
@@ -19730,7 +19826,7 @@
         <v>53</v>
       </c>
       <c r="G16" s="87">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
@@ -19743,7 +19839,7 @@
       <c r="N16" s="85"/>
       <c r="O16" s="89"/>
       <c r="P16" s="84" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="85"/>
       <c r="R16" s="90"/>
@@ -19765,7 +19861,7 @@
     </row>
     <row r="17" spans="1:33" ht="12.75" customHeight="1">
       <c r="A17" s="84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
@@ -19775,7 +19871,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="87">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
@@ -19788,17 +19884,17 @@
       <c r="N17" s="85"/>
       <c r="O17" s="89"/>
       <c r="P17" s="84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="85"/>
       <c r="R17" s="90"/>
       <c r="S17" s="90"/>
       <c r="T17" s="89"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
       <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
+      <c r="Y17" s="90"/>
       <c r="Z17" s="85"/>
       <c r="AA17" s="86"/>
       <c r="AB17" s="85"/>
@@ -19810,7 +19906,7 @@
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
       <c r="A18" s="84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -19820,7 +19916,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="87">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
@@ -19833,17 +19929,17 @@
       <c r="N18" s="85"/>
       <c r="O18" s="89"/>
       <c r="P18" s="84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="85"/>
       <c r="R18" s="90"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="86"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="89"/>
       <c r="U18" s="90"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
       <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="90"/>
       <c r="Z18" s="85"/>
       <c r="AA18" s="86"/>
       <c r="AB18" s="85"/>
@@ -19855,7 +19951,7 @@
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
       <c r="A19" s="84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
@@ -19865,7 +19961,7 @@
         <v>53</v>
       </c>
       <c r="G19" s="87">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
@@ -19878,10 +19974,10 @@
       <c r="N19" s="85"/>
       <c r="O19" s="89"/>
       <c r="P19" s="84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
+      <c r="R19" s="90"/>
       <c r="S19" s="90"/>
       <c r="T19" s="89"/>
       <c r="U19" s="85"/>
@@ -19900,7 +19996,7 @@
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
       <c r="A20" s="84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -19910,7 +20006,7 @@
         <v>53</v>
       </c>
       <c r="G20" s="87">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="H20" s="87"/>
       <c r="I20" s="87"/>
@@ -19923,13 +20019,13 @@
       <c r="N20" s="85"/>
       <c r="O20" s="89"/>
       <c r="P20" s="84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
+      <c r="R20" s="90"/>
       <c r="S20" s="85"/>
       <c r="T20" s="86"/>
-      <c r="U20" s="85"/>
+      <c r="U20" s="90"/>
       <c r="V20" s="85"/>
       <c r="W20" s="85"/>
       <c r="X20" s="85"/>
@@ -19945,7 +20041,7 @@
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
       <c r="A21" s="84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -19955,7 +20051,7 @@
         <v>53</v>
       </c>
       <c r="G21" s="87">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="87"/>
@@ -19968,12 +20064,12 @@
       <c r="N21" s="85"/>
       <c r="O21" s="89"/>
       <c r="P21" s="84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="85"/>
       <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="86"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="89"/>
       <c r="U21" s="85"/>
       <c r="V21" s="85"/>
       <c r="W21" s="85"/>
@@ -19990,7 +20086,7 @@
     </row>
     <row r="22" spans="1:33" ht="12.75" customHeight="1">
       <c r="A22" s="84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
@@ -20000,7 +20096,7 @@
         <v>53</v>
       </c>
       <c r="G22" s="87">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="H22" s="87"/>
       <c r="I22" s="87"/>
@@ -20013,7 +20109,7 @@
       <c r="N22" s="85"/>
       <c r="O22" s="89"/>
       <c r="P22" s="84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="85"/>
       <c r="R22" s="85"/>
@@ -20035,7 +20131,7 @@
     </row>
     <row r="23" spans="1:33" ht="12.75" customHeight="1">
       <c r="A23" s="84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="85"/>
@@ -20044,8 +20140,8 @@
       <c r="F23" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="87" t="s">
-        <v>128</v>
+      <c r="G23" s="87">
+        <v>1</v>
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
@@ -20058,12 +20154,12 @@
       <c r="N23" s="85"/>
       <c r="O23" s="89"/>
       <c r="P23" s="84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="85"/>
       <c r="R23" s="85"/>
       <c r="S23" s="85"/>
-      <c r="T23" s="89"/>
+      <c r="T23" s="86"/>
       <c r="U23" s="85"/>
       <c r="V23" s="85"/>
       <c r="W23" s="85"/>
@@ -20080,7 +20176,7 @@
     </row>
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
       <c r="A24" s="84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
@@ -20089,8 +20185,8 @@
       <c r="F24" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="87" t="s">
-        <v>128</v>
+      <c r="G24" s="87">
+        <v>1</v>
       </c>
       <c r="H24" s="87"/>
       <c r="I24" s="87"/>
@@ -20103,12 +20199,12 @@
       <c r="N24" s="85"/>
       <c r="O24" s="89"/>
       <c r="P24" s="84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="85"/>
       <c r="R24" s="85"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="89"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="86"/>
       <c r="U24" s="85"/>
       <c r="V24" s="85"/>
       <c r="W24" s="85"/>
@@ -20125,16 +20221,18 @@
     </row>
     <row r="25" spans="1:33" ht="12.75" customHeight="1">
       <c r="A25" s="84" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="87"/>
+        <v>53</v>
+      </c>
+      <c r="G25" s="87" t="s">
+        <v>128</v>
+      </c>
       <c r="H25" s="87"/>
       <c r="I25" s="87"/>
       <c r="J25" s="87"/>
@@ -20146,40 +20244,40 @@
       <c r="N25" s="85"/>
       <c r="O25" s="89"/>
       <c r="P25" s="84" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="85"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
       <c r="T25" s="89"/>
-      <c r="U25" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
       <c r="X25" s="85"/>
-      <c r="Y25" s="90"/>
+      <c r="Y25" s="85"/>
       <c r="Z25" s="85"/>
       <c r="AA25" s="86"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="85"/>
       <c r="AE25" s="85"/>
       <c r="AF25" s="85"/>
       <c r="AG25" s="86"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
       <c r="A26" s="84" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="87"/>
+        <v>53</v>
+      </c>
+      <c r="G26" s="87" t="s">
+        <v>128</v>
+      </c>
       <c r="H26" s="87"/>
       <c r="I26" s="87"/>
       <c r="J26" s="87"/>
@@ -20191,19 +20289,17 @@
       <c r="N26" s="85"/>
       <c r="O26" s="89"/>
       <c r="P26" s="84" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="85"/>
-      <c r="R26" s="90"/>
+      <c r="R26" s="85"/>
       <c r="S26" s="90"/>
       <c r="T26" s="89"/>
-      <c r="U26" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
       <c r="X26" s="85"/>
-      <c r="Y26" s="90"/>
+      <c r="Y26" s="85"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="86"/>
       <c r="AB26" s="85"/>
@@ -20214,43 +20310,53 @@
       <c r="AG26" s="86"/>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="84"/>
+      <c r="A27" s="84" t="s">
+        <v>227</v>
+      </c>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
       <c r="D27" s="85"/>
       <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="F27" s="87" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="87"/>
       <c r="H27" s="87"/>
       <c r="I27" s="87"/>
       <c r="J27" s="87"/>
-      <c r="K27" s="84"/>
+      <c r="K27" s="84" t="s">
+        <v>129</v>
+      </c>
       <c r="L27" s="85"/>
       <c r="M27" s="85"/>
       <c r="N27" s="85"/>
       <c r="O27" s="89"/>
-      <c r="P27" s="84"/>
+      <c r="P27" s="84" t="s">
+        <v>130</v>
+      </c>
       <c r="Q27" s="85"/>
       <c r="R27" s="90"/>
       <c r="S27" s="90"/>
       <c r="T27" s="89"/>
-      <c r="U27" s="90"/>
+      <c r="U27" s="90" t="s">
+        <v>229</v>
+      </c>
       <c r="V27" s="90"/>
       <c r="W27" s="90"/>
       <c r="X27" s="85"/>
       <c r="Y27" s="90"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="86"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
       <c r="AE27" s="85"/>
       <c r="AF27" s="85"/>
       <c r="AG27" s="86"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
       <c r="A28" s="84" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B28" s="85"/>
       <c r="C28" s="85"/>
@@ -20270,12 +20376,16 @@
       <c r="M28" s="85"/>
       <c r="N28" s="85"/>
       <c r="O28" s="89"/>
-      <c r="P28" s="84"/>
+      <c r="P28" s="84" t="s">
+        <v>130</v>
+      </c>
       <c r="Q28" s="85"/>
       <c r="R28" s="90"/>
       <c r="S28" s="90"/>
       <c r="T28" s="89"/>
-      <c r="U28" s="85"/>
+      <c r="U28" s="90" t="s">
+        <v>229</v>
+      </c>
       <c r="V28" s="90"/>
       <c r="W28" s="90"/>
       <c r="X28" s="85"/>
@@ -20325,17 +20435,23 @@
       <c r="AG29" s="86"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="84"/>
+      <c r="A30" s="84" t="s">
+        <v>212</v>
+      </c>
       <c r="B30" s="85"/>
       <c r="C30" s="85"/>
       <c r="D30" s="85"/>
       <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
+      <c r="F30" s="87" t="s">
+        <v>48</v>
+      </c>
       <c r="G30" s="87"/>
       <c r="H30" s="87"/>
       <c r="I30" s="87"/>
       <c r="J30" s="87"/>
-      <c r="K30" s="84"/>
+      <c r="K30" s="84" t="s">
+        <v>129</v>
+      </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85"/>
       <c r="N30" s="85"/>
@@ -20345,7 +20461,7 @@
       <c r="R30" s="90"/>
       <c r="S30" s="90"/>
       <c r="T30" s="89"/>
-      <c r="U30" s="90"/>
+      <c r="U30" s="85"/>
       <c r="V30" s="90"/>
       <c r="W30" s="90"/>
       <c r="X30" s="85"/>
@@ -20409,17 +20525,17 @@
       <c r="L32" s="85"/>
       <c r="M32" s="85"/>
       <c r="N32" s="85"/>
-      <c r="O32" s="86"/>
+      <c r="O32" s="89"/>
       <c r="P32" s="84"/>
       <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
       <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
+      <c r="Y32" s="90"/>
       <c r="Z32" s="85"/>
       <c r="AA32" s="86"/>
       <c r="AB32" s="85"/>
@@ -20444,17 +20560,17 @@
       <c r="L33" s="85"/>
       <c r="M33" s="85"/>
       <c r="N33" s="85"/>
-      <c r="O33" s="86"/>
+      <c r="O33" s="89"/>
       <c r="P33" s="84"/>
       <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
       <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
+      <c r="Y33" s="90"/>
       <c r="Z33" s="85"/>
       <c r="AA33" s="86"/>
       <c r="AB33" s="85"/>
@@ -20884,6 +21000,76 @@
       <c r="AF45" s="85"/>
       <c r="AG45" s="86"/>
     </row>
+    <row r="46" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="86"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="85"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="85"/>
+      <c r="AG46" s="86"/>
+    </row>
+    <row r="47" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A47" s="84"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="85"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="85"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="85"/>
+      <c r="AC47" s="85"/>
+      <c r="AD47" s="85"/>
+      <c r="AE47" s="85"/>
+      <c r="AF47" s="85"/>
+      <c r="AG47" s="86"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A3:F3"/>
@@ -20911,7 +21097,7 @@
   <dimension ref="A1:FU39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -21333,7 +21519,9 @@
       <c r="Y6" s="85"/>
       <c r="Z6" s="85"/>
       <c r="AA6" s="86"/>
-      <c r="AB6" s="85"/>
+      <c r="AB6" s="85" t="s">
+        <v>246</v>
+      </c>
       <c r="AC6" s="85"/>
       <c r="AD6" s="85"/>
       <c r="AE6" s="85"/>
@@ -21814,7 +22002,7 @@
       <c r="I17" s="87"/>
       <c r="J17" s="87"/>
       <c r="K17" s="84" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
@@ -21826,7 +22014,7 @@
       <c r="S17" s="85"/>
       <c r="T17" s="86"/>
       <c r="U17" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="V17" s="85"/>
       <c r="W17" s="85"/>
@@ -21835,7 +22023,7 @@
       <c r="Z17" s="85"/>
       <c r="AA17" s="86"/>
       <c r="AB17" s="85" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AC17" s="85"/>
       <c r="AD17" s="85"/>
@@ -21859,7 +22047,7 @@
       <c r="I18" s="87"/>
       <c r="J18" s="87"/>
       <c r="K18" s="84" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L18" s="85"/>
       <c r="M18" s="85"/>
@@ -21871,7 +22059,7 @@
       <c r="S18" s="90"/>
       <c r="T18" s="89"/>
       <c r="U18" s="85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="V18" s="90"/>
       <c r="W18" s="90"/>
@@ -21880,7 +22068,7 @@
       <c r="Z18" s="85"/>
       <c r="AA18" s="86"/>
       <c r="AB18" s="90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AC18" s="90"/>
       <c r="AD18" s="90"/>
@@ -21904,7 +22092,7 @@
       <c r="I19" s="87"/>
       <c r="J19" s="87"/>
       <c r="K19" s="84" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L19" s="85"/>
       <c r="M19" s="85"/>
@@ -21916,7 +22104,7 @@
       <c r="S19" s="90"/>
       <c r="T19" s="89"/>
       <c r="U19" s="90" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="V19" s="90"/>
       <c r="W19" s="90"/>
@@ -21925,7 +22113,7 @@
       <c r="Z19" s="85"/>
       <c r="AA19" s="86"/>
       <c r="AB19" s="90" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AC19" s="90"/>
       <c r="AD19" s="90"/>
@@ -22660,7 +22848,7 @@
   <dimension ref="A1:FU40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -22763,7 +22951,7 @@
       <c r="E3" s="122"/>
       <c r="F3" s="123"/>
       <c r="G3" s="121" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="122"/>
@@ -23027,7 +23215,7 @@
       <c r="S5" s="85"/>
       <c r="T5" s="86"/>
       <c r="U5" s="85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="V5" s="85"/>
       <c r="W5" s="85"/>
@@ -23074,7 +23262,7 @@
       <c r="S6" s="85"/>
       <c r="T6" s="86"/>
       <c r="U6" s="85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
@@ -23121,7 +23309,7 @@
       <c r="S7" s="90"/>
       <c r="T7" s="89"/>
       <c r="U7" s="90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="V7" s="90"/>
       <c r="W7" s="90"/>
@@ -23168,7 +23356,7 @@
       <c r="S8" s="90"/>
       <c r="T8" s="89"/>
       <c r="U8" s="90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="V8" s="90"/>
       <c r="W8" s="90"/>
@@ -23215,7 +23403,7 @@
       <c r="S9" s="90"/>
       <c r="T9" s="89"/>
       <c r="U9" s="90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="V9" s="90"/>
       <c r="W9" s="90"/>
@@ -23239,7 +23427,7 @@
       <c r="D10" s="85"/>
       <c r="E10" s="86"/>
       <c r="F10" s="87" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="87">
         <v>100</v>
@@ -23262,7 +23450,7 @@
       <c r="S10" s="90"/>
       <c r="T10" s="89"/>
       <c r="U10" s="90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="V10" s="90"/>
       <c r="W10" s="90"/>
@@ -23309,7 +23497,7 @@
       <c r="S11" s="90"/>
       <c r="T11" s="89"/>
       <c r="U11" s="85" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="V11" s="85"/>
       <c r="W11" s="85"/>
@@ -23356,7 +23544,7 @@
       <c r="S12" s="85"/>
       <c r="T12" s="86"/>
       <c r="U12" s="90" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="V12" s="85"/>
       <c r="W12" s="85"/>
@@ -23403,7 +23591,7 @@
       <c r="S13" s="90"/>
       <c r="T13" s="89"/>
       <c r="U13" s="85" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="V13" s="85"/>
       <c r="W13" s="85"/>
@@ -23450,7 +23638,7 @@
       <c r="S14" s="85"/>
       <c r="T14" s="86"/>
       <c r="U14" s="85" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="V14" s="85"/>
       <c r="W14" s="85"/>
@@ -23497,7 +23685,7 @@
       <c r="S15" s="85"/>
       <c r="T15" s="86"/>
       <c r="U15" s="85" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="V15" s="85"/>
       <c r="W15" s="85"/>
@@ -23544,7 +23732,7 @@
       <c r="S16" s="85"/>
       <c r="T16" s="86"/>
       <c r="U16" s="85" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="V16" s="85"/>
       <c r="W16" s="85"/>
@@ -23631,7 +23819,7 @@
       <c r="Z18" s="85"/>
       <c r="AA18" s="86"/>
       <c r="AB18" s="85" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AC18" s="85"/>
       <c r="AD18" s="85"/>
@@ -23676,7 +23864,7 @@
       <c r="Z19" s="85"/>
       <c r="AA19" s="86"/>
       <c r="AB19" s="90" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AC19" s="90"/>
       <c r="AD19" s="90"/>
@@ -23686,7 +23874,7 @@
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
       <c r="A20" s="84" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -23721,7 +23909,7 @@
       <c r="Z20" s="85"/>
       <c r="AA20" s="86"/>
       <c r="AB20" s="90" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AC20" s="90"/>
       <c r="AD20" s="90"/>
@@ -24453,10 +24641,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1528BCD9-6AE6-465A-8A0D-E8CD7D90BC28}">
-  <dimension ref="A1:FU39"/>
+  <dimension ref="A1:FU38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -24559,7 +24747,7 @@
       <c r="E3" s="122"/>
       <c r="F3" s="123"/>
       <c r="G3" s="121" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="122"/>
@@ -24823,7 +25011,7 @@
       <c r="S5" s="85"/>
       <c r="T5" s="86"/>
       <c r="U5" s="85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="V5" s="85"/>
       <c r="W5" s="85"/>
@@ -24870,7 +25058,7 @@
       <c r="S6" s="85"/>
       <c r="T6" s="86"/>
       <c r="U6" s="85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
@@ -24917,7 +25105,7 @@
       <c r="S7" s="90"/>
       <c r="T7" s="89"/>
       <c r="U7" s="90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="V7" s="90"/>
       <c r="W7" s="90"/>
@@ -24964,7 +25152,7 @@
       <c r="S8" s="90"/>
       <c r="T8" s="89"/>
       <c r="U8" s="90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="V8" s="90"/>
       <c r="W8" s="90"/>
@@ -25011,7 +25199,7 @@
       <c r="S9" s="90"/>
       <c r="T9" s="89"/>
       <c r="U9" s="90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="V9" s="90"/>
       <c r="W9" s="90"/>
@@ -25028,7 +25216,7 @@
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
       <c r="A10" s="84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
@@ -25038,7 +25226,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="87">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
@@ -25051,19 +25239,19 @@
       <c r="N10" s="85"/>
       <c r="O10" s="89"/>
       <c r="P10" s="84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="85"/>
       <c r="R10" s="90"/>
       <c r="S10" s="90"/>
       <c r="T10" s="89"/>
-      <c r="U10" s="90" t="s">
-        <v>230</v>
-      </c>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
+      <c r="U10" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
       <c r="X10" s="85"/>
-      <c r="Y10" s="90"/>
+      <c r="Y10" s="85"/>
       <c r="Z10" s="85"/>
       <c r="AA10" s="86"/>
       <c r="AB10" s="85"/>
@@ -25075,7 +25263,7 @@
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
       <c r="A11" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
@@ -25085,7 +25273,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -25098,14 +25286,14 @@
       <c r="N11" s="85"/>
       <c r="O11" s="89"/>
       <c r="P11" s="84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="85"/>
       <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="85" t="s">
-        <v>231</v>
+      <c r="S11" s="85"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="90" t="s">
+        <v>235</v>
       </c>
       <c r="V11" s="85"/>
       <c r="W11" s="85"/>
@@ -25122,7 +25310,7 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -25132,7 +25320,7 @@
         <v>53</v>
       </c>
       <c r="G12" s="87">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
@@ -25145,14 +25333,14 @@
       <c r="N12" s="85"/>
       <c r="O12" s="89"/>
       <c r="P12" s="84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q12" s="85"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="90" t="s">
-        <v>232</v>
+      <c r="R12" s="85"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="85" t="s">
+        <v>236</v>
       </c>
       <c r="V12" s="85"/>
       <c r="W12" s="85"/>
@@ -25169,7 +25357,7 @@
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
@@ -25192,14 +25380,14 @@
       <c r="N13" s="85"/>
       <c r="O13" s="89"/>
       <c r="P13" s="84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="85"/>
       <c r="R13" s="85"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="89"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="86"/>
       <c r="U13" s="85" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="V13" s="85"/>
       <c r="W13" s="85"/>
@@ -25216,7 +25404,7 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
@@ -25226,7 +25414,7 @@
         <v>53</v>
       </c>
       <c r="G14" s="87">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
@@ -25239,14 +25427,14 @@
       <c r="N14" s="85"/>
       <c r="O14" s="89"/>
       <c r="P14" s="84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="85"/>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
       <c r="T14" s="86"/>
       <c r="U14" s="85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="V14" s="85"/>
       <c r="W14" s="85"/>
@@ -25262,39 +25450,27 @@
       <c r="AG14" s="86"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A15" s="84" t="s">
-        <v>124</v>
-      </c>
+      <c r="A15" s="84"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
       <c r="D15" s="85"/>
       <c r="E15" s="86"/>
-      <c r="F15" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="87">
-        <v>1</v>
-      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
-      <c r="K15" s="84" t="s">
-        <v>129</v>
-      </c>
+      <c r="K15" s="84"/>
       <c r="L15" s="85"/>
       <c r="M15" s="85"/>
       <c r="N15" s="85"/>
       <c r="O15" s="89"/>
-      <c r="P15" s="84" t="s">
-        <v>141</v>
-      </c>
+      <c r="P15" s="84"/>
       <c r="Q15" s="85"/>
       <c r="R15" s="85"/>
       <c r="S15" s="85"/>
       <c r="T15" s="86"/>
-      <c r="U15" s="85" t="s">
-        <v>233</v>
-      </c>
+      <c r="U15" s="85"/>
       <c r="V15" s="85"/>
       <c r="W15" s="85"/>
       <c r="X15" s="85"/>
@@ -25309,22 +25485,30 @@
       <c r="AG15" s="86"/>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A16" s="84"/>
+      <c r="A16" s="84" t="s">
+        <v>207</v>
+      </c>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
       <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
+      <c r="F16" s="87" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="87"/>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
       <c r="J16" s="87"/>
-      <c r="K16" s="84"/>
+      <c r="K16" s="84" t="s">
+        <v>129</v>
+      </c>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
       <c r="N16" s="85"/>
       <c r="O16" s="89"/>
-      <c r="P16" s="84"/>
+      <c r="P16" s="84" t="s">
+        <v>130</v>
+      </c>
       <c r="Q16" s="85"/>
       <c r="R16" s="85"/>
       <c r="S16" s="85"/>
@@ -25336,7 +25520,9 @@
       <c r="Y16" s="85"/>
       <c r="Z16" s="85"/>
       <c r="AA16" s="86"/>
-      <c r="AB16" s="85"/>
+      <c r="AB16" s="85" t="s">
+        <v>242</v>
+      </c>
       <c r="AC16" s="85"/>
       <c r="AD16" s="85"/>
       <c r="AE16" s="85"/>
@@ -25345,7 +25531,7 @@
     </row>
     <row r="17" spans="1:33" ht="12.75" customHeight="1">
       <c r="A17" s="84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
@@ -25369,28 +25555,28 @@
         <v>130</v>
       </c>
       <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
       <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
+      <c r="Y17" s="90"/>
       <c r="Z17" s="85"/>
       <c r="AA17" s="86"/>
-      <c r="AB17" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="85"/>
+      <c r="AB17" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
       <c r="AE17" s="85"/>
       <c r="AF17" s="85"/>
       <c r="AG17" s="86"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
       <c r="A18" s="84" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -25425,7 +25611,7 @@
       <c r="Z18" s="85"/>
       <c r="AA18" s="86"/>
       <c r="AB18" s="90" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="AC18" s="90"/>
       <c r="AD18" s="90"/>
@@ -25434,30 +25620,22 @@
       <c r="AG18" s="86"/>
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="84" t="s">
-        <v>226</v>
-      </c>
+      <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
       <c r="D19" s="85"/>
       <c r="E19" s="86"/>
-      <c r="F19" s="87" t="s">
-        <v>48</v>
-      </c>
+      <c r="F19" s="87"/>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
       <c r="J19" s="87"/>
-      <c r="K19" s="84" t="s">
-        <v>129</v>
-      </c>
+      <c r="K19" s="84"/>
       <c r="L19" s="85"/>
       <c r="M19" s="85"/>
       <c r="N19" s="85"/>
       <c r="O19" s="89"/>
-      <c r="P19" s="84" t="s">
-        <v>130</v>
-      </c>
+      <c r="P19" s="84"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="90"/>
       <c r="S19" s="90"/>
@@ -25469,11 +25647,9 @@
       <c r="Y19" s="90"/>
       <c r="Z19" s="85"/>
       <c r="AA19" s="86"/>
-      <c r="AB19" s="90" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="85"/>
       <c r="AE19" s="85"/>
       <c r="AF19" s="85"/>
       <c r="AG19" s="86"/>
@@ -25534,7 +25710,7 @@
       <c r="R21" s="90"/>
       <c r="S21" s="90"/>
       <c r="T21" s="89"/>
-      <c r="U21" s="90"/>
+      <c r="U21" s="85"/>
       <c r="V21" s="90"/>
       <c r="W21" s="90"/>
       <c r="X21" s="85"/>
@@ -25569,7 +25745,7 @@
       <c r="R22" s="90"/>
       <c r="S22" s="90"/>
       <c r="T22" s="89"/>
-      <c r="U22" s="85"/>
+      <c r="U22" s="90"/>
       <c r="V22" s="90"/>
       <c r="W22" s="90"/>
       <c r="X22" s="85"/>
@@ -25668,17 +25844,17 @@
       <c r="L25" s="85"/>
       <c r="M25" s="85"/>
       <c r="N25" s="85"/>
-      <c r="O25" s="89"/>
+      <c r="O25" s="86"/>
       <c r="P25" s="84"/>
       <c r="Q25" s="85"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
       <c r="X25" s="85"/>
-      <c r="Y25" s="90"/>
+      <c r="Y25" s="85"/>
       <c r="Z25" s="85"/>
       <c r="AA25" s="86"/>
       <c r="AB25" s="85"/>
@@ -26143,41 +26319,6 @@
       <c r="AF38" s="85"/>
       <c r="AG38" s="86"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="85"/>
-      <c r="W39" s="85"/>
-      <c r="X39" s="85"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="85"/>
-      <c r="AA39" s="86"/>
-      <c r="AB39" s="85"/>
-      <c r="AC39" s="85"/>
-      <c r="AD39" s="85"/>
-      <c r="AE39" s="85"/>
-      <c r="AF39" s="85"/>
-      <c r="AG39" s="86"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A3:F3"/>
